--- a/Conceptual Example.xlsx
+++ b/Conceptual Example.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nau0-my.sharepoint.com/personal/jt893_nau_edu/Documents/Work/voxelmon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E97724-61C6-436E-ACA1-B9D5DBD59013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{C7E97724-61C6-436E-ACA1-B9D5DBD59013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BF43220-D3A3-480B-8775-114C3A132820}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5573565E-3E1B-4E32-AE2A-FC5C7EF6F125}"/>
+    <workbookView minimized="1" xWindow="3555" yWindow="3555" windowWidth="15390" windowHeight="9443" xr2:uid="{5573565E-3E1B-4E32-AE2A-FC5C7EF6F125}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,7 +83,7 @@
     <t>BULK_DENSITY</t>
   </si>
   <si>
-    <t>Effective LMA (kg/m^2)</t>
+    <t>LMA (kg/m^2)</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1005,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effective LMA</a:t>
+              <a:t>LMA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1156,7 +1155,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1188,7 +1187,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1208,6 +1207,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1275,7 +1275,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -1307,7 +1307,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -1449,7 +1449,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Effective LMA</a:t>
+              <a:t>LMA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1892,7 +1892,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>PAD</a:t>
+              <a:t>LAD</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6307,25 +6307,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F05C57-C866-4652-85E0-9F6AFE9EA4FE}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" customWidth="1"/>
+    <col min="10" max="10" width="12.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -6385,7 +6385,7 @@
         <v>6.000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>1.4549999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>3.3500000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>3.4840000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>4.6750000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>4.2720000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6788,7 +6788,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6819,7 +6819,7 @@
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>4.0000000000000008E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G23" s="1" t="s">
         <v>6</v>
       </c>
@@ -6858,7 +6858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G24" t="s">
         <v>8</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G25" t="s">
         <v>9</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G26" t="s">
         <v>10</v>
       </c>
@@ -6882,7 +6882,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G27" t="s">
         <v>11</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
         <v>12</v>
       </c>
